--- a/M3_25000.xlsx
+++ b/M3_25000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2315 +434,2507 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>$\beta$</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Mean inventory per demand unit</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Mean inventory</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Mean cost</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Mean cost per demand unit</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rank costs</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Rank inventory</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>0.95</v>
       </c>
-      <c r="B2" t="n">
-        <v>25000</v>
-      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.005594370806441246</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>12.9366087535969</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.9508743034344638</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>319118.4617172452</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>87.13183456426715</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2.804123711340206</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>3.768041237113402</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>0.95</v>
       </c>
-      <c r="B3" t="n">
-        <v>25000</v>
-      </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.005509318803793265</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>15.23649893324457</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.949060035324255</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>327940.9162850957</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>85.60159590877154</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>4.268041237113402</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>4.041237113402062</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.95</v>
       </c>
-      <c r="B4" t="n">
-        <v>25000</v>
-      </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.005902959677370576</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>12.29594096285996</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.9547425049523368</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>352538.4338296372</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>100.1119066560884</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>4.742268041237113</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>3.77319587628866</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.95</v>
       </c>
-      <c r="B5" t="n">
-        <v>25000</v>
-      </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>25000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.01066351725067111</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>33.09379562856276</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.9499847326466035</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>488179.7750484418</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>127.6446357518134</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>6.77319587628866</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>5.350515463917525</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>0.95</v>
       </c>
-      <c r="B6" t="n">
-        <v>25000</v>
-      </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004942107570737808</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>12.03632959648493</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.949484715542479</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>323250.8558194443</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>85.71296266434264</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>4.164948453608248</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>3.701030927835052</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.95</v>
       </c>
-      <c r="B7" t="n">
-        <v>25000</v>
-      </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.005861362497856754</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>14.18440621020669</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.9504237470573994</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>320416.4394742857</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>86.84207817848869</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>2.762886597938144</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>3.721649484536083</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>0.95</v>
       </c>
-      <c r="B8" t="n">
-        <v>25000</v>
-      </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.004658434992966357</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>11.2046773983326</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.9509787099308891</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>314532.8642064744</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>84.31337173688988</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>2.484536082474227</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>3.644329896907216</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>0.95</v>
       </c>
-      <c r="B9" t="n">
-        <v>25000</v>
-      </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.01645188647065038</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>92.77732743538036</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.9536782441731726</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>924857.4804546996</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>128.7083673699702</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>3.88659793814433</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>4.319587628865979</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>0.95</v>
       </c>
-      <c r="B10" t="n">
-        <v>25000</v>
-      </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.01436560380052435</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>86.43730924870172</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.9484424630186351</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>963922.7670204516</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>127.303048482067</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>4.948453608247423</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>4.458762886597938</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>0.95</v>
       </c>
-      <c r="B11" t="n">
-        <v>25000</v>
-      </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.01654695399579923</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>87.05153575567969</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.9564520912598554</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>1054307.838596857</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>145.7619890752691</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>5.103092783505154</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>4.324742268041237</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.95</v>
       </c>
-      <c r="B12" t="n">
-        <v>25000</v>
-      </c>
       <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>25000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.00758188708369334</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>48.76720349651145</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.954011146837794</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>771729.9741791695</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>98.68694881611597</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>3.752577319587629</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>3.711340206185567</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.95</v>
       </c>
-      <c r="B13" t="n">
-        <v>25000</v>
-      </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.01481665327233694</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>86.16367762715281</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.950257962988966</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>924694.7911456592</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>124.9314326620406</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>4.608247422680412</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>4.015463917525773</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.95</v>
       </c>
-      <c r="B14" t="n">
-        <v>25000</v>
-      </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01464034897329772</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>85.57737847271223</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.9511731580034065</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>900363.0503161681</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>122.0198900008608</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>3.34020618556701</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>3.850515463917526</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.95</v>
       </c>
-      <c r="B15" t="n">
-        <v>25000</v>
-      </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.01225561677519529</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>69.54339426323988</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.9527992714900166</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>832831.3830101342</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>112.2758169816446</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>2.360824742268041</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>3.31958762886598</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>0.975</v>
       </c>
-      <c r="B16" t="n">
-        <v>25000</v>
-      </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.02418379390804447</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>63.47622088985315</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.9770997153171092</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>297694.2462904442</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>83.51217312937442</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>3.371134020618557</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>3.943298969072165</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>0.975</v>
       </c>
-      <c r="B17" t="n">
-        <v>25000</v>
-      </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.02099309814363884</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>58.61757321709381</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.9749731151123801</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>295818.6106959433</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>78.73319165616002</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>3.824742268041237</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>3.798969072164948</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>0.975</v>
       </c>
-      <c r="B18" t="n">
-        <v>25000</v>
-      </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.02555161785653002</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>64.46476396944495</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.978581829541424</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>325372.0926282702</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>91.74662235594512</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>4.670103092783505</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>4.175257731958763</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>0.975</v>
       </c>
-      <c r="B19" t="n">
-        <v>25000</v>
-      </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
+        <v>25000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.02986517898631709</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>95.43970748220794</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.9754180596133066</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>435027.9556292791</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>111.1669459684494</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>6.721649484536083</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>6.293814432989691</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>0.975</v>
       </c>
-      <c r="B20" t="n">
-        <v>25000</v>
-      </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.02145136625816665</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>57.20801471256286</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.9753026069039361</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>293521.8084241374</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>79.25968120876377</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>3.721649484536083</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>3.252577319587629</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>0.975</v>
       </c>
-      <c r="B21" t="n">
-        <v>25000</v>
-      </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
         <v>6</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.02233085766029885</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>61.16549845511737</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.9754214080529274</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>287861.1328975777</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>78.49341103730114</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>2.556701030927835</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>3.046391752577319</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>0.975</v>
       </c>
-      <c r="B22" t="n">
-        <v>25000</v>
-      </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
         <v>7</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.0210160087570196</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>56.61829865671829</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.9765372023354201</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>289159.1486443361</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>78.41778034349316</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>3.134020618556701</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>3.489690721649485</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>0.975</v>
       </c>
-      <c r="B23" t="n">
-        <v>25000</v>
-      </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.04955936071376488</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>285.3022286023522</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.9800735661642344</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>814030.262989325</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>116.389468787168</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>4.505154639175258</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>5.010309278350515</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>0.975</v>
       </c>
-      <c r="B24" t="n">
-        <v>25000</v>
-      </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.03468875990115143</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>210.0058110925954</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.972549370587367</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>821976.5746476514</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>108.5009440353959</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>4.56701030927835</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>3.546391752577319</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>0.975</v>
       </c>
-      <c r="B25" t="n">
-        <v>25000</v>
-      </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>0.04311683767699533</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>249.6237018491113</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>0.9756989471463211</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>918485.2213029813</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>123.1867488099985</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>4.876288659793815</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>4.144329896907217</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>0.975</v>
       </c>
-      <c r="B26" t="n">
-        <v>25000</v>
-      </c>
       <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="inlineStr">
+        <v>25000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0.02510604797309875</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>170.3418021608207</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.9798316673015209</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>692865.8884509566</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>88.1936858050302</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>3.752577319587629</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>4.041237113402062</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>0.975</v>
       </c>
-      <c r="B27" t="n">
-        <v>25000</v>
-      </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
         <v>5</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>0.04367040116332656</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>257.5168334555785</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>0.9770509178739503</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>792492.8247329048</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>109.7099697547185</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>4.298969072164948</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>4.06701030927835</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>0.975</v>
       </c>
-      <c r="B28" t="n">
-        <v>25000</v>
-      </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
         <v>6</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>0.03702300621196033</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>225.6737455865931</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>0.9759320343024993</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>745153.1726441476</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>100.909108696467</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>3.443298969072165</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>3.634020618556701</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>0.975</v>
       </c>
-      <c r="B29" t="n">
-        <v>25000</v>
-      </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
         <v>7</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.03434516765089842</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>203.9886323722206</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>0.9780196327527404</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>705449.6384142828</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>95.64182315689182</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>2.556701030927835</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>3.556701030927835</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>0.99</v>
       </c>
-      <c r="B30" t="n">
-        <v>25000</v>
-      </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.08934358747373031</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>247.4898299554914</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>0.992748408336923</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>242545.6707739189</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>70.36192817562608</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>4.329896907216495</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>4.896907216494846</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>0.99</v>
       </c>
-      <c r="B31" t="n">
-        <v>25000</v>
-      </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.06834673968928262</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>197.373705223197</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0.9904635740796675</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>236649.6722454566</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>63.35932081715008</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>3.309278350515464</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>2.943298969072165</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>0.99</v>
       </c>
-      <c r="B32" t="n">
-        <v>25000</v>
-      </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
         <v>3</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.07612551486751662</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>217.0663361786611</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>0.99084796168513</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>266854.9527880598</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>70.31283342910309</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>4.185567010309279</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>3.989690721649485</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>0.99</v>
       </c>
-      <c r="B33" t="n">
-        <v>25000</v>
-      </c>
       <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
+        <v>25000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.08638255608207357</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>299.5671767603571</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>0.9907984656174527</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>357087.5020626672</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>88.0482845523469</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>6.402061855670103</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>5.855670103092783</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>0.99</v>
       </c>
-      <c r="B34" t="n">
-        <v>25000</v>
-      </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.07950367724550396</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>223.9353728427733</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0.9914956568203166</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>234736.2507272492</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>66.03986511389344</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>3.443298969072165</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>3.402061855670103</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>0.99</v>
       </c>
-      <c r="B35" t="n">
-        <v>25000</v>
-      </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
         <v>6</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.06433329872611598</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>188.7759245523522</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>0.9904337195810554</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>213756.1156006003</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>58.41040084630634</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>2.494845360824742</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>2.582474226804124</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>0.99</v>
       </c>
-      <c r="B36" t="n">
-        <v>25000</v>
-      </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
         <v>7</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>0.07084714226077878</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>206.0969755045181</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>0.9920488076366626</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>226655.0001073269</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>61.87485990615773</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>3.835051546391753</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>4.329896907216495</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>0.99</v>
       </c>
-      <c r="B37" t="n">
-        <v>25000</v>
-      </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.1258634020268024</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>733.5609954493697</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>0.9936050059003478</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>590432.6432916048</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>85.25891778429103</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>4.608247422680412</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>5.154639175257732</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>0.99</v>
       </c>
-      <c r="B38" t="n">
-        <v>25000</v>
-      </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.08055139065541955</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>493.7729622913223</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>0.9868854003239439</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>589110.3188990753</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>77.94287648642749</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>4.350515463917525</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>2.963917525773196</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>0.99</v>
       </c>
-      <c r="B39" t="n">
-        <v>25000</v>
-      </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.09477947696586182</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>571.0814436329186</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.9860681692174099</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>722655.6838292205</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>93.52765253816766</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>5.34020618556701</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>3.587628865979382</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>0.99</v>
       </c>
-      <c r="B40" t="n">
-        <v>25000</v>
-      </c>
       <c r="C40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" t="inlineStr">
+        <v>25000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.07665618806209729</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>533.0282339950573</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>0.9927879894483519</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>525403.5404796972</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>66.35754780724488</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>3.783505154639175</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>4.402061855670103</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>0.99</v>
       </c>
-      <c r="B41" t="n">
-        <v>25000</v>
-      </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.1205435468524267</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>712.3362966251722</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.9925885677898957</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>578540.894585886</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>82.67533393068761</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>4.123711340206185</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>4.546391752577319</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>0.99</v>
       </c>
-      <c r="B42" t="n">
-        <v>25000</v>
-      </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.08378642539971834</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>521.1318141336327</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.9901723753847299</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>505184.2667201179</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>67.97110397349847</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>3.061855670103093</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>3.231958762886598</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>0.99</v>
       </c>
-      <c r="B43" t="n">
-        <v>25000</v>
-      </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.08940818937697113</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>543.3450657080812</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0.9923835270233069</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>495438.0194127685</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>67.51045544240392</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>2.731958762886598</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>4.11340206185567</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>0.995</v>
       </c>
-      <c r="B44" t="n">
-        <v>25000</v>
-      </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.1620402619103533</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>460.1658739159077</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>0.9968526483078497</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>183643.3127381882</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>53.2383878206585</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>4.185567010309279</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>4.711340206185567</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>0.995</v>
       </c>
-      <c r="B45" t="n">
-        <v>25000</v>
-      </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
         <v>0.1269385758166908</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>378.7241246335592</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.9949534793709364</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>186127.5289216837</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>49.60275757116884</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>3.670103092783505</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>3.041237113402062</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>0.995</v>
       </c>
-      <c r="B46" t="n">
-        <v>25000</v>
-      </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.1299209644012576</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>387.8284597897986</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>0.9943440578568868</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>210683.5874887317</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>53.47744132359751</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>3.969072164948454</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>3.216494845360825</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>0.995</v>
       </c>
-      <c r="B47" t="n">
-        <v>25000</v>
-      </c>
       <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="inlineStr">
+        <v>25000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.1859260306818197</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>680.3995626241007</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>0.9951751129686111</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>305329.658031113</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>74.30823576966272</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>6.195876288659794</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>5.649484536082475</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>0.995</v>
       </c>
-      <c r="B48" t="n">
-        <v>25000</v>
-      </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
         <v>5</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.1624571032310366</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>466.352622300212</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.9965029094909121</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>179661.4300181124</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>52.76476390960781</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>3.65979381443299</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>4.237113402061856</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>0.995</v>
       </c>
-      <c r="B49" t="n">
-        <v>25000</v>
-      </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
         <v>6</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.1092909227764521</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>329.2454803750813</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>0.995121890082977</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>154644.1293079315</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>41.94640796923689</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>2.298969072164948</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>2.453608247422681</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>0.995</v>
       </c>
-      <c r="B50" t="n">
-        <v>25000</v>
-      </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
         <v>7</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.1375926082426908</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>419.7106986402561</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.9967213625583435</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>174433.0473225717</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>47.57330927915774</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>4.020618556701031</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>4.690721649484536</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>0.995</v>
       </c>
-      <c r="B51" t="n">
-        <v>25000</v>
-      </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1895152487238972</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>1117.861961272221</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>0.9968318555104325</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>415318.3188787194</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>59.18856262657953</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>4.360824742268041</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>4.907216494845361</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>0.995</v>
       </c>
-      <c r="B52" t="n">
-        <v>25000</v>
-      </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D52" t="n">
         <v>2</v>
       </c>
       <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
         <v>0.1252690706601902</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>780.0117749955826</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>0.9916726383911261</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>423280.9032934294</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>56.19972530043331</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>4.268041237113402</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>2.860824742268041</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>0.995</v>
       </c>
-      <c r="B53" t="n">
-        <v>25000</v>
-      </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.1497171395511747</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>884.838198302116</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>0.9894325912831587</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>753035.8397030848</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>91.61304371242993</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>5.536082474226804</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>3.262886597938144</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>0.995</v>
       </c>
-      <c r="B54" t="n">
-        <v>25000</v>
-      </c>
       <c r="C54" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" t="inlineStr">
+        <v>25000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>4a</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.1273541675006071</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>891.9532090347426</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>0.9960712721610047</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>384056.2721294912</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>47.97618319463194</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>3.907216494845361</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>4.443298969072165</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>0.995</v>
       </c>
-      <c r="B55" t="n">
-        <v>25000</v>
-      </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
         <v>5</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.1969378617100231</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>1171.723596206229</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>0.9968566217841626</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>412697.3053587087</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>59.94900690323903</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>4.268041237113402</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>5.195876288659794</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>0.995</v>
       </c>
-      <c r="B56" t="n">
-        <v>25000</v>
-      </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
         <v>6</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.1241617872069927</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>780.0095115459746</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>0.9946767690482751</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>345716.4793173046</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>45.86272506261832</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>2.835051546391753</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>3.010309278350515</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>0.995</v>
       </c>
-      <c r="B57" t="n">
-        <v>25000</v>
-      </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
         <v>7</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.143857913783345</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>880.7531709304575</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>0.9965361528681878</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>348758.0998067243</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>47.61571785765683</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>2.824742268041237</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>4.319587628865979</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B58" t="n">
         <v>0.95</v>
       </c>
-      <c r="B58" t="n">
-        <v>25000</v>
-      </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
         <v>4</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.004197831878756132</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>7.674882321351598</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>0.9467817001365573</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>371874.9759891934</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>94.96726305606774</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>5.206185567010309</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>3.670103092783505</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B59" t="n">
         <v>0.95</v>
       </c>
-      <c r="B59" t="n">
-        <v>25000</v>
-      </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
         <v>4</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.008561481237632727</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>40.03991642906801</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>0.9436473195694319</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>992916.3385530363</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>124.2847423233724</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>4.185567010309279</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>2.855670103092784</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B60" t="n">
         <v>0.975</v>
       </c>
-      <c r="B60" t="n">
-        <v>25000</v>
-      </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
         <v>4</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.0149501451664712</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>34.15223633355889</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>0.9730467463426312</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>340530.9412367066</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>84.66718184740391</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>5.030927835051546</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>2.88659793814433</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B61" t="n">
         <v>0.975</v>
       </c>
-      <c r="B61" t="n">
-        <v>25000</v>
-      </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
         <v>4</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.02277992641799167</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>121.3360070025735</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0.9711905257129734</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>862441.6589525994</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>105.4536880110058</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>2.695876288659794</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B62" t="n">
         <v>0.99</v>
       </c>
-      <c r="B62" t="n">
-        <v>25000</v>
-      </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
         <v>4</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.0541627075847627</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>153.4708232341504</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>0.9900019170969856</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>282771.4291648382</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>67.82700140021571</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>5.247422680412371</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>3.804123711340206</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B63" t="n">
         <v>0.99</v>
       </c>
-      <c r="B63" t="n">
-        <v>25000</v>
-      </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
         <v>4</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.06554899399057425</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>400.6882745504113</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>0.9883690835099886</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>661070.4313619558</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>78.03248258597982</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>4.309278350515464</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>3.608247422680412</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B64" t="n">
         <v>0.995</v>
       </c>
-      <c r="B64" t="n">
-        <v>25000</v>
-      </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
         <v>4</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.1154220730289822</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>363.7312065897176</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>0.9949716880040856</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>229649.0452564706</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>53.6302739187887</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>5.278350515463917</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>4.216494845360825</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B65" t="n">
         <v>0.995</v>
       </c>
-      <c r="B65" t="n">
-        <v>25000</v>
-      </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>25000</v>
       </c>
       <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.1157158293487181</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>750.951534489789</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>0.9934410057051479</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>504837.2184925118</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>57.83137361138584</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>4.309278350515464</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>3.917525773195876</v>
       </c>
     </row>
